--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B2E32F-920A-C44C-8580-F3597137FA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485E625-5956-074B-A88F-7E28906FE09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>==========================================================</t>
   </si>
@@ -44,34 +44,112 @@
     <t>============== SEPARATOR =================================</t>
   </si>
   <si>
-    <t>please create a div that appears like a button and says</t>
-  </si>
-  <si>
-    <t>nubra tableface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">it should have a border of 1 px solid with radius corners of 9 px </t>
-  </si>
-  <si>
-    <t xml:space="preserve">the text should be </t>
-  </si>
-  <si>
-    <t>we will name this</t>
-  </si>
-  <si>
-    <t>nubra-tableface-kite in our code somewhere for reference and then i will tell you which pages to add it to</t>
-  </si>
-  <si>
-    <t>mostly we will be looking at a lot of pages in the app that have a certain type of ui table grid on them and then i will be having you put this label there just above the top of the ui table grid on that page</t>
-  </si>
-  <si>
-    <t xml:space="preserve">background color should be 83e09d and text should be 16 px black with bold </t>
-  </si>
-  <si>
-    <t>padding of div should be 5 px on all sides</t>
-  </si>
-  <si>
-    <t>you can start by adding this to the xpagesmanager1 page in the frontend ui then later i will feed you more pages</t>
+    <t xml:space="preserve">for our page at </t>
+  </si>
+  <si>
+    <t>/moonjar</t>
+  </si>
+  <si>
+    <t>please make sure that every column in this ui table contains every db column from db table:</t>
+  </si>
+  <si>
+    <t>moons</t>
+  </si>
+  <si>
+    <t>please make sure there is a checkbox in the far left column of this ui table</t>
+  </si>
+  <si>
+    <t>———————————————————————</t>
+  </si>
+  <si>
+    <t>immediate population in ui table upon "create new" functionality</t>
+  </si>
+  <si>
+    <t>NUBRA TABLEFACES - MAIN TENANTS</t>
+  </si>
+  <si>
+    <t>variable per page:</t>
+  </si>
+  <si>
+    <t>please make sure that the user can edit all fields (in a given row) directly in the ui table without having to open an editor popup for "item view"</t>
+  </si>
+  <si>
+    <t>user must be able to to click and start typing/etc. with "inline editing" functionality for text based fields</t>
+  </si>
+  <si>
+    <t>please place toggle switches in the ui table for boolean fields</t>
+  </si>
+  <si>
+    <t>please add a button above the ui table grid that says "create new (inline)"</t>
+  </si>
+  <si>
+    <t>when user clicks this button, the ui table grid will populate with a new row immediately without page refresh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user will then be able to instantly start editing obviously </t>
+  </si>
+  <si>
+    <t>please create another button that occurs just after the other create new button</t>
+  </si>
+  <si>
+    <t>this button will say "create new (popup)"</t>
+  </si>
+  <si>
+    <t>when user clicks this, an individual item editor popup will open for user to edit the db row's individual fields inside of</t>
+  </si>
+  <si>
+    <t>please place a dynamic call to the nubra-tableface-kite in our app, and place it directly before the start of the main ui table grid on the page</t>
+  </si>
+  <si>
+    <t>this kite is a label that simply labels the style of ui table grid we have constructed for our own reference</t>
+  </si>
+  <si>
+    <t>please make sure there are pagination controls that feature 2 button bars</t>
+  </si>
+  <si>
+    <t>1 for qty of results per page</t>
+  </si>
+  <si>
+    <t>1 for specific page selected</t>
+  </si>
+  <si>
+    <t>these should not be dropdowns</t>
+  </si>
+  <si>
+    <t>this pair of pagination controls should appear both below and above the ui table grid at the right side of it</t>
+  </si>
+  <si>
+    <t>please make sure the nubra tableface kite appears actually above the pagination controls where the pagination ctonrols appear above the ui table grid</t>
+  </si>
+  <si>
+    <t>please set the default pagination to 100 for this page</t>
+  </si>
+  <si>
+    <t>please give qty per page options of</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>please create a search box to the right of the pagination controls and append a square yellow clear button with the text "CL" on it</t>
+  </si>
+  <si>
+    <t>please create a robust ui table grid system, and build something similar to what is on our current page at /xpagesmanager1</t>
+  </si>
+  <si>
+    <t>(in terms of general styling, etc.)</t>
+  </si>
+  <si>
+    <t>please make sure that, for the top th header label cells that occur at the top of each column in the ui table grid, the following is true:</t>
+  </si>
+  <si>
+    <t>text is bold</t>
+  </si>
+  <si>
+    <t>text is all lowercase</t>
+  </si>
+  <si>
+    <t>text is the exact name of the db column it corresponds to (if it is a ui column that corresponds directly to a db column)</t>
   </si>
 </sst>
 </file>
@@ -120,9 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,11 +539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D5DEF2-9E47-1F40-892E-E5575C55EDCD}">
-  <dimension ref="E1:E34"/>
+  <dimension ref="B1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,85 +552,291 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E44" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E53" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E57" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E62" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E67" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E69" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E70" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E72" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E485E625-5956-074B-A88F-7E28906FE09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA165CD8-06E5-2748-96E6-F01F9915DB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
   <si>
     <t>==========================================================</t>
   </si>
@@ -47,15 +47,9 @@
     <t xml:space="preserve">for our page at </t>
   </si>
   <si>
-    <t>/moonjar</t>
-  </si>
-  <si>
     <t>please make sure that every column in this ui table contains every db column from db table:</t>
   </si>
   <si>
-    <t>moons</t>
-  </si>
-  <si>
     <t>please make sure there is a checkbox in the far left column of this ui table</t>
   </si>
   <si>
@@ -150,6 +144,27 @@
   </si>
   <si>
     <t>text is the exact name of the db column it corresponds to (if it is a ui column that corresponds directly to a db column)</t>
+  </si>
+  <si>
+    <t>please make sure the pagination and search box area occurs at the left side of the screen</t>
+  </si>
+  <si>
+    <t>checkbox styling and functionality</t>
+  </si>
+  <si>
+    <t>please make the checkboxes 20 px by 20 px square</t>
+  </si>
+  <si>
+    <t>please make the "clickable" area that user must click on , in order to select a row, be the entire table cell (whether a td in main table area or th for the "select all" checkbox)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so this will give the user a bigger area to click on </t>
+  </si>
+  <si>
+    <t>/sunjar</t>
+  </si>
+  <si>
+    <t>suns</t>
   </si>
 </sst>
 </file>
@@ -539,11 +554,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D5DEF2-9E47-1F40-892E-E5575C55EDCD}">
-  <dimension ref="B1:E81"/>
+  <dimension ref="B1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -570,7 +585,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
@@ -585,188 +600,188 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E33" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E44" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E51" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E53" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E55" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E56" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E57" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="67" spans="5:5" x14ac:dyDescent="0.2">
@@ -801,42 +816,77 @@
     </row>
     <row r="73" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E75" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E79" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E80" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E87" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E92" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA165CD8-06E5-2748-96E6-F01F9915DB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B5CE3C-16E0-D447-8543-9BC542A34A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B5CE3C-16E0-D447-8543-9BC542A34A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF03243-3E83-564E-A0D5-4AFE4C7E5ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
@@ -558,7 +558,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF03243-3E83-564E-A0D5-4AFE4C7E5ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5259A-7449-664B-8E5D-0B7B89F48366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>==========================================================</t>
   </si>
@@ -161,10 +161,34 @@
     <t xml:space="preserve">so this will give the user a bigger area to click on </t>
   </si>
   <si>
-    <t>/sunjar</t>
-  </si>
-  <si>
-    <t>suns</t>
+    <t>/folderjar</t>
+  </si>
+  <si>
+    <t>filegun_folders</t>
+  </si>
+  <si>
+    <t>the pagination button bars should show the same mouse behavior as when user is hovering over normal links .   │</t>
+  </si>
+  <si>
+    <t>│   there should also be a button bar hover bg color of light gray for the pagination button bars.</t>
+  </si>
+  <si>
+    <t>please change the pagination text size to be 14 px . and then alter the top and bottom paddings only (not     │</t>
+  </si>
+  <si>
+    <t>│   right and left) of the individual button bars to be 10 px</t>
+  </si>
+  <si>
+    <t>please make sure that inside the pagination button bars, the individual buttons do not have space between them</t>
+  </si>
+  <si>
+    <t>they should adjoin cleanly with no visual gap</t>
+  </si>
+  <si>
+    <t>please make sure that none of these buttons have rounded corners except for the buttons on the ends of the button bars.</t>
+  </si>
+  <si>
+    <t>please make sure that there are no rounded corners anywhere buttons adjoin.</t>
   </si>
 </sst>
 </file>
@@ -554,11 +578,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D5DEF2-9E47-1F40-892E-E5575C55EDCD}">
-  <dimension ref="B1:E92"/>
+  <dimension ref="B1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E80" sqref="E80"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -889,6 +913,66 @@
         <v>40</v>
       </c>
     </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E108" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E109" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E111" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCA5259A-7449-664B-8E5D-0B7B89F48366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA9657-A758-E847-8268-F3BA72117608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
@@ -581,8 +581,8 @@
   <dimension ref="B1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E109" sqref="E109"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
+++ b/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/120 nubra tableface tenants - landmark - 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/SDDX - August Outlook/120 nubra tableface tenants - landmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFA9657-A758-E847-8268-F3BA72117608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F161A2E-0315-2E4E-9FD4-FF80EF9198D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{8FCDE040-DC75-E34D-B379-66D0D3B71A2B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
   <si>
     <t>==========================================================</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>please make sure that there are no rounded corners anywhere buttons adjoin.</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
 </sst>
 </file>
@@ -237,13 +240,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,11 +582,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D5DEF2-9E47-1F40-892E-E5575C55EDCD}">
-  <dimension ref="B1:E111"/>
+  <dimension ref="C1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F115" sqref="F115"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,109 +595,115 @@
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="3:5" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C24" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E30" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E32" t="s">
         <v>5</v>
       </c>
